--- a/BalanceSheet/DGX_bal.xlsx
+++ b/BalanceSheet/DGX_bal.xlsx
@@ -1729,19 +1729,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-164000000.0</v>
+        <v>1559000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-62000000.0</v>
+        <v>446000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>472000000.0</v>
+        <v>1677000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>89000000.0</v>
+        <v>1136000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-47000000.0</v>
+        <v>976000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1041000000.0</v>
@@ -2433,7 +2433,7 @@
         <v>-17000000.0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>73000000.0</v>
+        <v>350000000.0</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>-11000000.0</v>
